--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Python-para-principiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE2253-19D9-4DD9-BF4D-B1B53A57B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67717A-1990-4DF9-8622-316D162347F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11625" yWindow="2595" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-11520" yWindow="11250" windowWidth="11595" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4398,6 +4398,103 @@
   <si>
     <t>TEXTO 
 EN HEAD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-variant: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>samll caps - normal</t>
+    </r>
+  </si>
+  <si>
+    <t>define si se muestra en mayusculas tipo normal o pequeñas</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+   h1, h2, h3 {color:#ff0000}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">permite ahorras caracteristicas a los elementos agrupando con una coma para que aplique el mismo color para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1, h2, h3</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+   h1, h2, h3 {color:#ff0000; font-family:arial;
+   h1 size:30px;
+   h2 size: 40 px}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">podemo definir mas de una propiedas a nuestro elementos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h1,h2,h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tienes el mismo color y tipo de letra y cada uno tiene un tamaño diferente </t>
+    </r>
+  </si>
+  <si>
+    <t>COLOR MISMO ELEMENTO</t>
+  </si>
+  <si>
+    <t>MISMO COLOR DIFERENTE MEDIDAS</t>
+  </si>
+  <si>
+    <t>style color:rgb(255,0,0);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede indicar un color a un elemento si conoces los valores decimales con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rgb(255,0,0)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5824,10 +5921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,47 +6082,67 @@
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -6034,17 +6151,17 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6057,15 +6174,15 @@
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -6104,12 +6221,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,32 +6259,33 @@
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
@@ -6182,24 +6300,24 @@
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,7 +6341,7 @@
       <c r="C64" s="4"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="4"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -6231,7 +6349,7 @@
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -6247,25 +6365,29 @@
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="15"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
       <c r="C73" s="17"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="15"/>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="17"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67717A-1990-4DF9-8622-316D162347F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFCCA5-46A8-4BC6-9DE3-B3C6E8943BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11520" yWindow="11250" windowWidth="11595" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-11520" yWindow="11220" windowWidth="11595" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4494,6 +4494,197 @@
         <scheme val="minor"/>
       </rPr>
       <t>rgb(255,0,0)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+body { color:#0000ff;
+  font-family:verdana;}
+em { color:#008800;}
+p { color:#999999;}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>COLOR CON
+ DECIMAL</t>
+  </si>
+  <si>
+    <t>HERENCIA DE 
+PROPIEDADES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aplica la herencia en el orden descendente en el ejemplo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tienes un color para todo el cuerpo podemos aplicas otros colores que esten dentro de los elementos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">em </t>
+    </r>
+  </si>
+  <si>
+    <t>h1 strong{
+  color:#ff0000;}</t>
+  </si>
+  <si>
+    <t>p strong{
+  color:#0000ff;}</t>
+  </si>
+  <si>
+    <t>HEAD COLOR 
+ETIQUETAS
+ESPECIFICAS</t>
+  </si>
+  <si>
+    <t>div h1 em {
+            color:#ff0000;}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta con azul el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">strong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si esta dentro del parrafo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta con rojo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">strong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">si esta dentro de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta de rojo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">si esta dentro de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
     </r>
   </si>
 </sst>
@@ -4618,7 +4809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4700,6 +4891,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5923,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,7 +6331,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="31" t="s">
+        <v>187</v>
+      </c>
       <c r="B21" s="21" t="s">
         <v>184</v>
       </c>
@@ -6139,25 +6341,45 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -6383,11 +6605,12 @@
       <c r="B86" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFCCA5-46A8-4BC6-9DE3-B3C6E8943BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070C3D9-3CB4-4ABC-AA9F-FD44BECD06A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11520" yWindow="11220" windowWidth="11595" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-8700" yWindow="2835" windowWidth="16965" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4687,12 +4687,87 @@
       <t>div</t>
     </r>
   </si>
+  <si>
+    <t>ARCHIVO 
+EXTERNO CSS</t>
+  </si>
+  <si>
+    <t>&lt;link rel="StyleSheet" href="estilos.css" type="text/css"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se debe agg la siguiente linea dentro del head que indica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">link="Styleheet" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">define relacion entre archivo enlazado y documento html </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">href="estilos.css" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">al nombre del archivo externo y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">type="text/css" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indica al navegador el tipo de formato de archivo</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4775,6 +4850,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4809,7 +4891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4880,6 +4962,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4892,14 +4980,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5609,7 +5694,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5617,31 +5702,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -6123,14 +6208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6146,7 +6231,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6157,7 +6242,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="19" t="s">
         <v>143</v>
       </c>
@@ -6166,7 +6251,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -6177,7 +6262,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
@@ -6186,7 +6271,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="22" t="s">
         <v>150</v>
       </c>
@@ -6195,7 +6280,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
@@ -6204,7 +6289,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="23" t="s">
         <v>154</v>
       </c>
@@ -6213,7 +6298,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>155</v>
       </c>
@@ -6222,7 +6307,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -6233,7 +6318,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>160</v>
       </c>
@@ -6242,7 +6327,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="24" t="s">
         <v>162</v>
       </c>
@@ -6251,7 +6336,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -6262,7 +6347,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="22" t="s">
         <v>166</v>
       </c>
@@ -6271,7 +6356,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>168</v>
       </c>
@@ -6280,7 +6365,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>176</v>
       </c>
@@ -6289,7 +6374,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="22" t="s">
         <v>170</v>
       </c>
@@ -6331,7 +6416,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6345,7 +6430,7 @@
       <c r="A22" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -6356,7 +6441,7 @@
       <c r="A23" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -6365,7 +6450,7 @@
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6374,17 +6459,23 @@
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070C3D9-3CB4-4ABC-AA9F-FD44BECD06A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA203649-69B6-494F-A61C-8D7139D21D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8700" yWindow="2835" windowWidth="16965" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="2415" yWindow="660" windowWidth="16740" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="212">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -3937,13 +3937,7 @@
     </r>
   </si>
   <si>
-    <t>COLOR</t>
-  </si>
-  <si>
     <t>PROPIEDAD</t>
-  </si>
-  <si>
-    <t>TEXTO</t>
   </si>
   <si>
     <r>
@@ -4334,10 +4328,6 @@
   </si>
   <si>
     <t>aplicar valores como normal - bold - bolder - lighter</t>
-  </si>
-  <si>
-    <t>TEXTO
-FUENTES</t>
   </si>
   <si>
     <t>&lt;style&gt;
@@ -4470,12 +4460,6 @@
       </rPr>
       <t xml:space="preserve">tienes el mismo color y tipo de letra y cada uno tiene un tamaño diferente </t>
     </r>
-  </si>
-  <si>
-    <t>COLOR MISMO ELEMENTO</t>
-  </si>
-  <si>
-    <t>MISMO COLOR DIFERENTE MEDIDAS</t>
   </si>
   <si>
     <t>style color:rgb(255,0,0);</t>
@@ -4558,11 +4542,6 @@
   color:#0000ff;}</t>
   </si>
   <si>
-    <t>HEAD COLOR 
-ETIQUETAS
-ESPECIFICAS</t>
-  </si>
-  <si>
     <t>div h1 em {
             color:#ff0000;}</t>
   </si>
@@ -4688,10 +4667,6 @@
     </r>
   </si>
   <si>
-    <t>ARCHIVO 
-EXTERNO CSS</t>
-  </si>
-  <si>
     <t>&lt;link rel="StyleSheet" href="estilos.css" type="text/css"&gt;</t>
   </si>
   <si>
@@ -4761,6 +4736,238 @@
       </rPr>
       <t>indica al navegador el tipo de formato de archivo</t>
     </r>
+  </si>
+  <si>
+    <t>ESTILO MEDIO
+DE CLASES</t>
+  </si>
+  <si>
+    <t>.resaltado{ color:#000000;}
+&lt;h1 class="resaltado"&gt;Titulo de nivel 1&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se inicializar con un punto el nombre de clase que deseamos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.resaltado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y se debe aplicar el mismo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class="resaltado" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al elemento que desee (se puede usar varias veces la misma clase)</t>
+    </r>
+  </si>
+  <si>
+    <t>ESTILO POR
+MEDIO DE ID</t>
+  </si>
+  <si>
+    <t>ESTILO DE
+UN ARCHIVO
+EXTERNO</t>
+  </si>
+  <si>
+    <t>ESTILO EN 
+FUNCION DEL 
+CONTEXTO</t>
+  </si>
+  <si>
+    <t>PROPIEDADES
+RELACIONADAS
+AL TEXTO</t>
+  </si>
+  <si>
+    <t>ESTILO A 
+NIVEL DE PAGINA</t>
+  </si>
+  <si>
+    <t>PROPIEDADES 
+RELACIONADAS
+A FUENTES</t>
+  </si>
+  <si>
+    <t>AGRUPACION 
+DE VARIOS 
+ELEMENTOS</t>
+  </si>
+  <si>
+    <t>VARIAS REGLAS 
+A UNO MISMO
+ELEMENTO</t>
+  </si>
+  <si>
+    <t># concepto{ color:#000000;}
+&lt;h1 id="concepto"&gt;Titulo de nivel 1&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se inicializa con # y el nombre de la clase deseada en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#concepto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y se aplica el elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id="concepto" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al elemento que desee (se puede aplicar una sola vez la clase)</t>
+    </r>
+  </si>
+  <si>
+    <t>BORDE DE 
+UN ELEMENTO</t>
+  </si>
+  <si>
+    <t>border-width: 1 px;
+border-style: solid;
+border-color: #000000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">podemos acceder a la propiedad borde en rectangulo mediante el estilo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde-with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es para el ancho del borde, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde=style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el estilo del los bordes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde-color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el color de los bordes</t>
+    </r>
+  </si>
+  <si>
+    <t>ESTILOS DE 
+BORDES</t>
+  </si>
+  <si>
+    <t>none - hidden - dotted - dashed - solid - double - groove -
+ridge - insert - outset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ningun borde - borde invisible - borde en punto - </t>
   </si>
 </sst>
 </file>
@@ -4968,6 +5175,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4981,10 +5191,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5694,7 +5901,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5702,31 +5909,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -6208,8 +6415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6221,7 +6428,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -6231,271 +6438,295 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>140</v>
+      <c r="A2" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="22" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="22" t="s">
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="22" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="23" t="s">
+      <c r="C9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24" t="s">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="24" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22" t="s">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C17" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>198</v>
+      <c r="B26" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA203649-69B6-494F-A61C-8D7139D21D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B0670-1E05-4E53-B0AF-0951C2435D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="660" windowWidth="16740" windowHeight="9270" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8040" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4963,11 +4963,160 @@
 BORDES</t>
   </si>
   <si>
-    <t>none - hidden - dotted - dashed - solid - double - groove -
-ridge - insert - outset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ningun borde - borde invisible - borde en punto - </t>
+    <t xml:space="preserve">no borde - invisible - en punto - puntos largos borde fijo
+borde doble - borde hundido - borde brotado - texto hundido - 
+texto brotado
+</t>
+  </si>
+  <si>
+    <t>PROPIEDADES
+AL BORDE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se puede modificar el grosor, estilo y color de los borde de un elemento
+nos permite modificar cada uno de los cuadros de rectangulo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top (arriba)
+right (derecha)
+bottom (izquierda)
+left (izquierda)</t>
+    </r>
+  </si>
+  <si>
+    <t>borde-style:
+none - hidden - dotted - dashed - solid - 
+double - groove -ridge - insert - outset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-top: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(arriba)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+border-right: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(derecha)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+border-bottom: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(abajo)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+border-left: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(izquierda)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(aplica para with - style - color)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PADDING 
+ESPACIO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sirve para indicar el espacio entre el texto y los borde puede aplicarlos individualmente o todo a la misma vez aplicando solo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding:10px</t>
+    </r>
+  </si>
+  <si>
+    <t>padding-top
+padding-right 
+paddign-bottom
+padding-left</t>
   </si>
 </sst>
 </file>
@@ -5178,6 +5327,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5185,13 +5337,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5901,7 +6050,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5909,31 +6058,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -6415,15 +6564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -6449,7 +6598,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="19" t="s">
         <v>141</v>
       </c>
@@ -6469,7 +6618,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="22" t="s">
         <v>145</v>
       </c>
@@ -6478,7 +6627,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="22" t="s">
         <v>148</v>
       </c>
@@ -6487,7 +6636,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="22" t="s">
         <v>150</v>
       </c>
@@ -6496,7 +6645,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="23" t="s">
         <v>152</v>
       </c>
@@ -6505,7 +6654,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="22" t="s">
         <v>153</v>
       </c>
@@ -6514,7 +6663,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -6525,7 +6674,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>158</v>
       </c>
@@ -6534,7 +6683,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="24" t="s">
         <v>160</v>
       </c>
@@ -6554,7 +6703,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="22" t="s">
         <v>164</v>
       </c>
@@ -6563,7 +6712,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="22" t="s">
         <v>166</v>
       </c>
@@ -6572,7 +6721,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="22" t="s">
         <v>173</v>
       </c>
@@ -6581,7 +6730,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="22" t="s">
         <v>168</v>
       </c>
@@ -6696,7 +6845,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -6707,7 +6856,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -6717,26 +6866,38 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
+      <c r="B31" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B0670-1E05-4E53-B0AF-0951C2435D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F556EB-210B-4B50-A8BE-E4E0A7031720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8040" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="246">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -3967,81 +3967,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Con </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>background-color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: cambia de color el fondo del texto y deben ir separado de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>por propiedad y si son sensible que este con minuscula que con mayuscula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La propiedas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>style="color:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  cambiar el color del texto 
-Se puede aplicar a todos los elementos de html (14) primero 
-es color rojo - (8F) es verde y (77) es azul</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">text-align: </t>
     </r>
     <r>
@@ -4118,9 +4043,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">El elementos </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -4129,7 +4051,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>div</t>
+      <t>&lt;span style="color:#148F77"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4139,10 +4061,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> permite agrupar un conjunto de elementos y aplicar reglas de estilo (a,em,strong,innput,ect - bloques)</t>
-    </r>
-  </si>
-  <si>
+      <t>Comentario</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -4152,55 +4072,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;span style="color:#148F77"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comentario</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>&lt;/span&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cambia de color solo el texto ingresado entre </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">span </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sin cambiar el 
-resto o hacer salto de linea (texto personalizado)</t>
     </r>
   </si>
   <si>
@@ -4228,33 +4100,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/pre&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Con la etiquetad </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> la informacion se mostrara tal y cual como se 
-ingreso y si se aplica CSS aparece tipo monoespaciado </t>
     </r>
   </si>
   <si>
@@ -4337,55 +4182,6 @@
 &lt;/style&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">se usa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">style </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dentro del </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;head&gt; &lt;/head&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>con eso indicamos que todos 
-los elemento que lleven de titulo h1,h2 y h3 se resaltara con el color 
-que esta indicado en cada uno</t>
-    </r>
-  </si>
-  <si>
     <t>TEXTO 
 EN HEAD</t>
   </si>
@@ -4411,22 +4207,6 @@
     <t>&lt;style&gt;
    h1, h2, h3 {color:#ff0000}
 &lt;/style&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">permite ahorras caracteristicas a los elementos agrupando con una coma para que aplique el mismo color para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h1, h2, h3</t>
-    </r>
   </si>
   <si>
     <t>&lt;style&gt;
@@ -4436,49 +4216,7 @@
 &lt;/style&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">podemo definir mas de una propiedas a nuestro elementos en este caso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">h1,h2,h3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tienes el mismo color y tipo de letra y cada uno tiene un tamaño diferente </t>
-    </r>
-  </si>
-  <si>
     <t>style color:rgb(255,0,0);</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">puede indicar un color a un elemento si conoces los valores decimales con </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rgb(255,0,0)</t>
-    </r>
   </si>
   <si>
     <t>&lt;style&gt;
@@ -4497,43 +4235,6 @@
 PROPIEDADES</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">aplica la herencia en el orden descendente en el ejemplo el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">body </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tienes un color para todo el cuerpo podemos aplicas otros colores que esten dentro de los elementos en este caso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">em </t>
-    </r>
-  </si>
-  <si>
     <t>h1 strong{
   color:#ff0000;}</t>
   </si>
@@ -4546,196 +4247,7 @@
             color:#ff0000;}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">se resalta con azul el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">strong </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>si esta dentro del parrafo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">se resalta con rojo el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">strong </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">si esta dentro de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">se resalta de rojo el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">em </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">si esta dentro de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">h1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y del </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>div</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;link rel="StyleSheet" href="estilos.css" type="text/css"&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">se debe agg la siguiente linea dentro del head que indica </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">link="Styleheet" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">define relacion entre archivo enlazado y documento html </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">href="estilos.css" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">al nombre del archivo externo y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">type="text/css" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indica al navegador el tipo de formato de archivo</t>
-    </r>
   </si>
   <si>
     <t>ESTILO MEDIO
@@ -4744,53 +4256,6 @@
   <si>
     <t>.resaltado{ color:#000000;}
 &lt;h1 class="resaltado"&gt;Titulo de nivel 1&lt;/h1&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">se inicializar con un punto el nombre de clase que deseamos en este caso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.resaltado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y se debe aplicar el mismo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">class="resaltado" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>al elemento que desee (se puede usar varias veces la misma clase)</t>
-    </r>
   </si>
   <si>
     <t>ESTILO POR
@@ -4835,53 +4300,6 @@
 &lt;h1 id="concepto"&gt;Titulo de nivel 1&lt;/h1&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">se inicializa con # y el nombre de la clase deseada en este caso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#concepto </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y se aplica el elemento </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id="concepto" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>al elemento que desee (se puede aplicar una sola vez la clase)</t>
-    </r>
-  </si>
-  <si>
     <t>BORDE DE 
 UN ELEMENTO</t>
   </si>
@@ -4889,74 +4307,6 @@
     <t>border-width: 1 px;
 border-style: solid;
 border-color: #000000</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">podemos acceder a la propiedad borde en rectangulo mediante el estilo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">borde-with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">es para el ancho del borde, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">borde=style </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">el estilo del los bordes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">borde-color </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>el color de los bordes</t>
-    </r>
   </si>
   <si>
     <t>ESTILOS DE 
@@ -5117,13 +4467,1322 @@
 padding-right 
 paddign-bottom
 padding-left</t>
+  </si>
+  <si>
+    <t>MARGEN DE
+UN ELEMENTO</t>
+  </si>
+  <si>
+    <t>margen-top
+margen-right 
+margen-bottom
+margen-left</t>
+  </si>
+  <si>
+    <t>RELACIONADAS
+A LISTAS</t>
+  </si>
+  <si>
+    <t>VALORES DE 
+LIST-STYLE-TYPE</t>
+  </si>
+  <si>
+    <t>VALORES DE 
+LIST-STYPE-
+POSITION</t>
+  </si>
+  <si>
+    <t>VALORES DE 
+LIST-STYPE-IMAGE</t>
+  </si>
+  <si>
+    <t>background-color:
+background-image:
+background-repeat:
+background-position:
+background-attachment:</t>
+  </si>
+  <si>
+    <t>list-stype-imagen:
+none
+url</t>
+  </si>
+  <si>
+    <t>list-stype-type:
+none - disc - circle - square - decimal / decimal-leading-zero 
+lower-roman / upper-roman / lower alpha / upper-alpha</t>
+  </si>
+  <si>
+    <t>list-style-type:
+list-style-position:
+list-style-imagen:</t>
+  </si>
+  <si>
+    <t>RELACIONADAS 
+AL FONDO
+(background)</t>
+  </si>
+  <si>
+    <t>background-image:</t>
+  </si>
+  <si>
+    <t>background-repeat: 
+repeat
+no-repeat
+repeat-x
+repeat-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* se repite la imagen en todo el fondo hasta llenarlo
+* no repite la imagen y la coloca alado izquierdo superior por defecto
+* repite la imagen en fila hacia la derecha 
+* repite la imagen en columna hacia abajo (izquierdo) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrega un imagen en todo el fondo de la pagina y se repite ya que por defecto viene con la opcion repeat incluida </t>
+  </si>
+  <si>
+    <t>background-position:
+top (left - center - right)
+center (left - center - right)
+bottom (left - center - right)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La propiedas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style="color:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  cambiar el color del texto 
+Se puede aplicar a todos los elementos de html (14) primero 
+es color rojo - (8F) es verde y (77) es azul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: cambia de color el fondo del texto y deben ir separado de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>por propiedad y si son sensible que este con minuscula que con mayuscula</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El elementos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> permite agrupar un conjunto de elementos y aplicar reglas de estilo (a,em,strong,innput,ect - bloques)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cambia de color solo el texto ingresado entre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">span </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sin cambiar el 
+resto o hacer salto de linea (texto personalizado)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con la etiquetad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la informacion se mostrara tal y cual como se 
+ingreso y si se aplica CSS aparece tipo monoespaciado </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se usa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dentro del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;head&gt; &lt;/head&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con eso indicamos que todos 
+los elemento que lleven de titulo h1,h2 y h3 se resaltara con el color 
+que esta indicado en cada uno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">permite ahorras caracteristicas a los elementos agrupando con una coma para que aplique el mismo color para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1, h2, h3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">podemo definir mas de una propiedas a nuestro elementos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h1,h2,h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tienes el mismo color y tipo de letra y cada uno tiene un tamaño diferente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede indicar un color a un elemento si conoces los valores decimales con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rgb(255,0,0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aplica la herencia en el orden descendente en el ejemplo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tienes un color para todo el cuerpo podemos aplicas otros colores que esten dentro de los elementos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">em </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta con azul el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">strong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si esta dentro del parrafo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta con rojo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">strong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">si esta dentro de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se resalta de rojo el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">si esta dentro de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se debe agg la siguiente linea dentro del head que indica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">link="Styleheet" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">define relacion entre archivo enlazado y documento html </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">href="estilos.css" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">al nombre del archivo externo y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">type="text/css" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indica al navegador el tipo de formato de archivo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se inicializar con un punto el nombre de clase que deseamos en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.resaltado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y se debe aplicar el mismo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class="resaltado" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al elemento que desee (se puede usar varias veces la misma clase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se inicializa con # y el nombre de la clase deseada en este caso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#concepto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y se aplica el elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id="concepto" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al elemento que desee (se puede aplicar una sola vez la clase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">podemos acceder a la propiedad borde en rectangulo mediante el estilo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde-with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es para el ancho del borde, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde=style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el estilo del los bordes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">borde-color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el color de los bordes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sirve para separar un elemento de otro dentro de la pagina puede aplicarlos individualmente o todo a la misma vez aplicando solo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">margin:0px </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sirve para encjaar el texto mientras mas sea los </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">px </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mas se encojera el margen </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aplica para cada item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dentro de un lista existen 3 tipos 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list-style-type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifica los tipos de listas al comienzo ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list-style-position </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list-style-imagen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">indica </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">en blanco - circulo negro - circulo vacio - cuadrados - digitos -0 y digitos 
+romanos pequeño- romanos grande - letras pequeñas - letras grandes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lower </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(pequeños) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">upper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(grande) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">roman </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(romanos) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">alpha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(letras)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tipo de fondo que se puede aplicar en los elementos 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">color: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cambiar el color a los elementos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">image: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repeat:
+position:
+attachment:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aplica el lugar donde ira la imagen tenemos los siguientes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">parte superior del cuerpo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">center </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">parte central del cuerpo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bottom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parte inferior del cuerpo (todo puede aplicar left - center - rigth)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">brackground-position
+70% (x) 20% (y) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede aplicar tambien con medidas personalizas donde 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se mueve hacia la derecha como valla aumentando el %
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hacia abajo como valla aumentado el %</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">brackground-position
+400px (x) 100px (y) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede aplicar tambien con medidas personalizas donde 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se mueve hacia la derecha como valla aumentando el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hacia abajo como valla aumentado el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+  </si>
+  <si>
+    <t>list-stype-position:
+inside
+outside</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede colocar en vez de un tipo de lista una imagen personalizada que se repetira en cada uno de los </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aparece la viñetas de la lista dentro de la misma
+con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aparece las vinetas de la lista afuera de la misma al borde</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5213,6 +5872,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5247,7 +5928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5297,9 +5978,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5327,9 +6005,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5341,6 +6016,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5525,7 +6216,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5574,7 +6265,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5623,7 +6314,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6050,7 +6741,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6058,31 +6749,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -6564,13 +7255,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
   </cols>
@@ -6586,401 +7277,457 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="C33" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="B34" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B35" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="B36" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B37" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="C38" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="C40" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
+      <c r="C41" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="12"/>
       <c r="C49" s="8"/>
     </row>
@@ -7088,7 +7835,8 @@
       <c r="B86" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F556EB-210B-4B50-A8BE-E4E0A7031720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EFFF93-6744-4214-90B5-4178432E189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8040" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4184,21 +4184,6 @@
   <si>
     <t>TEXTO 
 EN HEAD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-variant: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>samll caps - normal</t>
-    </r>
   </si>
   <si>
     <t>define si se muestra en mayusculas tipo normal o pequeñas</t>
@@ -5428,69 +5413,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">tipo de fondo que se puede aplicar en los elementos 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">color: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cambiar el color a los elementos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">image: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>repeat:
-position:
-attachment:</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">aplica el lugar donde ira la imagen tenemos los siguientes
 </t>
     </r>
@@ -5561,10 +5483,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">brackground-position
-70% (x) 20% (y) </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">puede aplicar tambien con medidas personalizas donde 
 </t>
@@ -5612,10 +5530,6 @@
       </rPr>
       <t>hacia abajo como valla aumentado el %</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">brackground-position
-400px (x) 100px (y) </t>
   </si>
   <si>
     <r>
@@ -5776,13 +5690,598 @@
       </rPr>
       <t xml:space="preserve"> aparece las vinetas de la lista afuera de la misma al borde</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-variant: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>samll caps - normal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (opcional)</t>
+    </r>
+  </si>
+  <si>
+    <t>RELACIONADAS 
+A FUENTES</t>
+  </si>
+  <si>
+    <t>RELACIONADAS 
+AL BORDE</t>
+  </si>
+  <si>
+    <t>.h1 
+{ font: italic bold 25px sans-serif; }</t>
+  </si>
+  <si>
+    <t>.h1 
+{ border: 1 px solid #ff0000;</t>
+  </si>
+  <si>
+    <t>padding: 5px 10px 12px 3px;</t>
+  </si>
+  <si>
+    <t>RELACIONADAS 
+AL PADDING</t>
+  </si>
+  <si>
+    <t>si pone un solo valor se aplica para los 4 lados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padding: 5px 10px </t>
+  </si>
+  <si>
+    <t>padding: 1px</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">si pone 2 valores / el primero aplica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bottom  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y el segundo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">right </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">left </t>
+    </r>
+  </si>
+  <si>
+    <t>RELACIONADAS 
+AL MARGEN</t>
+  </si>
+  <si>
+    <t>margin: 5px 10px 12px 3px</t>
+  </si>
+  <si>
+    <t>margin: 1px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">margin: 5px 10px </t>
+  </si>
+  <si>
+    <r>
+      <t>puede agrupar varios elementos de tipo e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spacio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entre el texto y el borde
+en este orden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">top / right / bottom / left </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede agrupar varios elementos de tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entre el texto y el ancho
+en este orden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">top / right / bottom / left </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puedes agrupar varios elementos de tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>borde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en el orde que indica
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">border: wigth / style / color </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puedes agrupar varios elementos de tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fuentes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en el orden que desee solo con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">font: style / weight / variant (opcional) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y al final </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>size / family</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tipo de fondo que se puede aplicar en los elementos 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">color: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cambiar el color a los elementos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">image: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">agg imagen en el fondo del pc o de internet por url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">repeat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aplica para repetir o no la imagen en el fondo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+position: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">posiciion que esta la imagen puedes ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(100%) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o en (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400px)
+attachment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> orden de la imagen de acorde a como se mueva uno o scroll</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">background-position
+70% (x) 20% (y) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">background-position
+400px (x) 100px (y) </t>
+  </si>
+  <si>
+    <t>background attachment:
+scroll
+fixed
+local</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aplica para la imagen que se agg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">scroll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">la imagen de fondo se fija y no se desplaza con el contenido a la vez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fixed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">la imagen esta fija al fondo y no se mueve al desplazar la ventana
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">local </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el imagen se desplaza al contenido si tienes barra al hacer scroll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">puede agrupar varios elementos de tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fondo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">indistintamente del orden que se aplica debe indicar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background: color / image / repeat / position</t>
+    </r>
+  </si>
+  <si>
+    <t>.p 
+ { background: #cccccc url(fondo.jpg) repeat; 50% 50%}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5873,13 +6372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -5928,7 +6420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5980,9 +6472,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6005,6 +6494,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6017,21 +6515,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6741,7 +7229,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6749,31 +7237,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -7253,17 +7741,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -7278,564 +7766,718 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>185</v>
+      <c r="A2" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>217</v>
+      <c r="C2" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="32" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B19" s="22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="C19" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="C28" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="25" t="s">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="B29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="25" t="s">
+    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="B30" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="23" t="s">
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="B34" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B35" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="32" t="s">
+      <c r="B38" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" s="23" t="s">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="B45" s="28" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="32" t="s">
+      <c r="C45" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="4"/>
+      <c r="B46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
       <c r="B54" s="12"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
       <c r="B55" s="12"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="8"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
       <c r="B61" s="15"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
       <c r="B63" s="15"/>
       <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
       <c r="B64" s="15"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
       <c r="B65" s="15"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
       <c r="B69" s="15"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
       <c r="B70" s="15"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
       <c r="B71" s="15"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="17"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="15"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="C75" s="17"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="35"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="35"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="35"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="35"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EFFF93-6744-4214-90B5-4178432E189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EFC84-B752-44C2-A540-E8EF5BC6872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8040" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="11655" windowHeight="7980" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -6503,6 +6503,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6514,12 +6520,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7229,7 +7229,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7237,31 +7237,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7777,7 +7777,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="18" t="s">
         <v>141</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>183</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -7797,7 +7797,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>143</v>
       </c>
@@ -7806,7 +7806,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="20" t="s">
         <v>146</v>
       </c>
@@ -7815,7 +7815,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="20" t="s">
         <v>148</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="21" t="s">
         <v>150</v>
       </c>
@@ -7833,7 +7833,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="20" t="s">
         <v>151</v>
       </c>
@@ -7842,7 +7842,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>155</v>
       </c>
@@ -7862,7 +7862,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="22" t="s">
         <v>156</v>
       </c>
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>185</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -7882,7 +7882,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="20" t="s">
         <v>159</v>
       </c>
@@ -7891,7 +7891,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="20" t="s">
         <v>161</v>
       </c>
@@ -7900,7 +7900,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="20" t="s">
         <v>242</v>
       </c>
@@ -7909,7 +7909,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="20" t="s">
         <v>163</v>
       </c>
@@ -7973,7 +7973,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -7984,7 +7984,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="24" t="s">
         <v>174</v>
       </c>
@@ -7993,7 +7993,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="24" t="s">
         <v>176</v>
       </c>
@@ -8134,7 +8134,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="34" t="s">
         <v>210</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -8145,7 +8145,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="27" t="s">
         <v>211</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="28" t="s">
         <v>212</v>
       </c>
@@ -8163,7 +8163,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="28" t="s">
         <v>215</v>
       </c>
@@ -8172,7 +8172,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="28" t="s">
         <v>262</v>
       </c>
@@ -8181,7 +8181,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="28" t="s">
         <v>263</v>
       </c>
@@ -8221,10 +8221,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="30" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -8232,8 +8232,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="30" t="s">
         <v>251</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -8241,7 +8241,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="28" t="s">
         <v>250</v>
       </c>
@@ -8250,7 +8250,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="34" t="s">
         <v>253</v>
       </c>
       <c r="B50" s="28" t="s">
@@ -8261,7 +8261,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="28" t="s">
         <v>255</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="28" t="s">
         <v>256</v>
       </c>
@@ -8290,189 +8290,189 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="15"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="15"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="15"/>
       <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="15"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="15"/>
       <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="15"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="15"/>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="15"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="15"/>
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="15"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="15"/>
       <c r="C74" s="17"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
+      <c r="A75" s="31"/>
       <c r="C75" s="17"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
+      <c r="A76" s="31"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="31"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="31"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
+      <c r="A79" s="31"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="31"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="31"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="31"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
+      <c r="A83" s="31"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
+      <c r="A84" s="31"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
+      <c r="A86" s="31"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="15"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
+      <c r="A88" s="31"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
+      <c r="A89" s="31"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="31"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="31"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="31"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="31"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
+      <c r="A94" s="31"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
+      <c r="A95" s="31"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
+      <c r="A96" s="31"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
+      <c r="A97" s="31"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
+      <c r="A98" s="31"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="31"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
+      <c r="A100" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EFC84-B752-44C2-A540-E8EF5BC6872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE89E5-2DD6-444B-9BDE-BF9C84666DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="11655" windowHeight="7980" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="11475" windowHeight="7980" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>&lt;a href="index_2.html&gt;Mysql&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;img src="python.png" alt="Python"&gt;&lt;/img&gt;</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Sirve para agg imágenes. En </t>
     </r>
@@ -156,10 +153,6 @@
     </r>
   </si>
   <si>
-    <t>Se coloca ../ para acceder a la carpeta padre de donde se 
-encuentra el archivo html</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Nos dirige a la pagina ingresada en </t>
     </r>
@@ -210,58 +203,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> previamente añadido, se debe asegurar que sea el dominio principal para acceder a dicha informacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Se coloca una imagen de referencia en vez del nombre de la pagina ingresada en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> siempre y cuando este almacenada en nuestra carpeta general</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;img src="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>../</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>python.png" alt="Python"&gt;&lt;/img&gt;</t>
     </r>
   </si>
   <si>
@@ -1795,8 +1736,7 @@
   </si>
   <si>
     <r>
-      <t>Ingrese su nombre:
-&lt;</t>
+      <t>&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1817,7 +1757,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">="text" </t>
+      <t xml:space="preserve">="submit" </t>
     </r>
     <r>
       <rPr>
@@ -1828,7 +1768,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>name</t>
+      <t>value</t>
     </r>
     <r>
       <rPr>
@@ -1838,75 +1778,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">="nombre" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="20"&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="submit" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>="Enviar"</t>
     </r>
   </si>
@@ -1955,96 +1826,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> el nombre que llevara el boton </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La primero es un texto fijado, luego </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para definir un cuadro de texto, se coloca </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type="text"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que es el tipo de datos a ingresar, en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name="nombre"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nombre al cuadro de texto para poder recuperar el datos ingresad al servidor y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>size="20"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la cantidad de caracteres que se visualizara no mas la cantidad que se puede ingresar en el cuadro
-</t>
     </r>
   </si>
   <si>
@@ -6276,12 +6057,298 @@
     <t>.p 
  { background: #cccccc url(fondo.jpg) repeat; 50% 50%}</t>
   </si>
+  <si>
+    <t>&lt;img src="python.png" alt="Python"&gt;&lt;/img&gt; o   &lt;img /&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;img src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>../</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python.png" alt="Python"&gt;&lt;/img&gt; width=400 height=400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se coloca ../ para acceder a la carpeta padre de donde se 
+encuentra el archivo html-con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">weight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cambias el ancho de la imagen y con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cambia la altura de la imagen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se coloca una imagen de referencia en vez del nombre de la pagina ingresada en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> siempre y cuando este almacenada en nuestra carpeta general</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingrese su nombre:
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="nombre" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="20" placeholder="nombre"&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La primero es un texto fijado, luego </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para definir un cuadro de texto, se coloca </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type="text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que es el tipo de datos a ingresar, en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name="nombre"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nombre al cuadro de texto para poder recuperar el datos ingresad al servidor y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>size="20"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la cantidad de caracteres que se visualizara no mas la cantidad que se puede ingresar en el cuadro, con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">placeholder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aparece el texto en comilla al fondo pero como fantasma
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6386,6 +6453,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6420,7 +6504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6520,6 +6604,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7142,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C64267-1EF3-40C6-9B10-F85413A53935}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7190,12 +7277,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -7203,15 +7290,15 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -7284,440 +7371,440 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -7743,7 +7830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -7756,7 +7843,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -7767,78 +7854,78 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -7846,447 +7933,447 @@
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="28" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
       <c r="B43" s="28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
       <c r="B48" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
       <c r="B49" s="28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
       <c r="B51" s="28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
       <c r="B52" s="28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE89E5-2DD6-444B-9BDE-BF9C84666DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5234121-864B-4C24-941C-E606BAC31423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="0" windowWidth="11475" windowHeight="7980" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
@@ -6058,9 +6058,6 @@
  { background: #cccccc url(fondo.jpg) repeat; 50% 50%}</t>
   </si>
   <si>
-    <t>&lt;img src="python.png" alt="Python"&gt;&lt;/img&gt; o   &lt;img /&gt;</t>
-  </si>
-  <si>
     <r>
       <t>&lt;img src="</t>
     </r>
@@ -6164,6 +6161,133 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">La primero es un texto fijado, luego </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para definir un cuadro de texto, se coloca </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type="text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que es el tipo de datos a ingresar, en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name="nombre"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nombre al cuadro de texto para poder recuperar el datos ingresad al servidor y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>size="20"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la cantidad de caracteres que se visualizara no mas la cantidad que se puede ingresar en el cuadro, con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">placeholder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aparece el texto en comilla al fondo pero como fantasma
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;img src="python.png" alt="Python"&gt;&lt;/img&gt; o  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;img /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Ingrese su nombre:
 &lt;</t>
     </r>
@@ -6228,13 +6352,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">="20" placeholder="nombre"&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La primero es un texto fijado, luego </t>
+      <t xml:space="preserve">="20" placeholder="nombre"&gt; o </t>
     </r>
     <r>
       <rPr>
@@ -6245,7 +6363,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;input</t>
+      <t>&lt;input /&gt;</t>
     </r>
     <r>
       <rPr>
@@ -6255,91 +6373,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> para definir un cuadro de texto, se coloca </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type="text"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que es el tipo de datos a ingresar, en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name="nombre"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nombre al cuadro de texto para poder recuperar el datos ingresad al servidor y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>size="20"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la cantidad de caracteres que se visualizara no mas la cantidad que se puede ingresar en el cuadro, con </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">placeholder </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">aparece el texto en comilla al fondo pero como fantasma
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -6593,6 +6627,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6604,9 +6641,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7229,8 +7263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C64267-1EF3-40C6-9B10-F85413A53935}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7316,7 +7350,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7324,31 +7358,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -7384,7 +7418,7 @@
     </row>
     <row r="20" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
@@ -7392,18 +7426,18 @@
     </row>
     <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>265</v>
+      <c r="C22" s="32" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -7600,10 +7634,10 @@
     </row>
     <row r="47" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -7853,7 +7887,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7864,7 +7898,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="18" t="s">
         <v>135</v>
       </c>
@@ -7873,7 +7907,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -7884,7 +7918,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="20" t="s">
         <v>137</v>
       </c>
@@ -7893,7 +7927,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="20" t="s">
         <v>140</v>
       </c>
@@ -7902,7 +7936,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="20" t="s">
         <v>142</v>
       </c>
@@ -7911,7 +7945,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="21" t="s">
         <v>144</v>
       </c>
@@ -7920,7 +7954,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="20" t="s">
         <v>145</v>
       </c>
@@ -7929,7 +7963,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -7940,7 +7974,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
@@ -7949,7 +7983,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="22" t="s">
         <v>150</v>
       </c>
@@ -7958,7 +7992,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>179</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -7969,7 +8003,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="20" t="s">
         <v>153</v>
       </c>
@@ -7978,7 +8012,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="20" t="s">
         <v>155</v>
       </c>
@@ -7987,7 +8021,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="20" t="s">
         <v>236</v>
       </c>
@@ -7996,7 +8030,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="20" t="s">
         <v>157</v>
       </c>
@@ -8060,7 +8094,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -8071,7 +8105,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="24" t="s">
         <v>168</v>
       </c>
@@ -8080,7 +8114,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="24" t="s">
         <v>170</v>
       </c>
@@ -8221,7 +8255,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>204</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -8232,7 +8266,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="27" t="s">
         <v>205</v>
       </c>
@@ -8241,7 +8275,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="28" t="s">
         <v>206</v>
       </c>
@@ -8250,7 +8284,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="28" t="s">
         <v>209</v>
       </c>
@@ -8259,7 +8293,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="28" t="s">
         <v>256</v>
       </c>
@@ -8268,7 +8302,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="28" t="s">
         <v>257</v>
       </c>
@@ -8308,7 +8342,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>242</v>
       </c>
       <c r="B47" s="30" t="s">
@@ -8319,7 +8353,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="30" t="s">
         <v>245</v>
       </c>
@@ -8328,7 +8362,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="28" t="s">
         <v>244</v>
       </c>
@@ -8337,7 +8371,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>247</v>
       </c>
       <c r="B50" s="28" t="s">
@@ -8348,7 +8382,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="28" t="s">
         <v>249</v>
       </c>
@@ -8357,7 +8391,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="28" t="s">
         <v>250</v>
       </c>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5234121-864B-4C24-941C-E606BAC31423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6550DF-591C-4FE2-8D87-906EA01B3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="11475" windowHeight="7980" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-19200" yWindow="0" windowWidth="9600" windowHeight="15360" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -6505,7 +6505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6524,8 +6524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -6533,12 +6539,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6641,6 +6684,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7263,8 +7321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C64267-1EF3-40C6-9B10-F85413A53935}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7274,7 +7332,7 @@
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7283,7 +7341,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7291,7 +7349,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7299,7 +7357,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7307,7 +7365,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7315,15 +7373,15 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7331,7 +7389,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7339,7 +7397,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7347,7 +7405,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -7355,45 +7413,45 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="34"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="34"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="34"/>
     </row>
-    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -7401,7 +7459,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -7409,7 +7467,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -7417,15 +7475,15 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="43" t="s">
         <v>262</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -7864,7 +7922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6550DF-591C-4FE2-8D87-906EA01B3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF1900-5972-4075-86D5-741E63179B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="0" windowWidth="9600" windowHeight="15360" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -6505,7 +6505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6530,8 +6530,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -6576,17 +6594,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6596,20 +6626,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6630,16 +6648,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6673,6 +6685,84 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6685,20 +6775,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7321,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C64267-1EF3-40C6-9B10-F85413A53935}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7333,15 +7418,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7349,7 +7434,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7357,7 +7442,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7365,7 +7450,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7373,7 +7458,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7381,7 +7466,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7389,7 +7474,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7397,7 +7482,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7405,45 +7490,45 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="55"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="55"/>
     </row>
     <row r="15" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="55"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -7451,7 +7536,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -7459,451 +7544,451 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="25" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="33" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+    <row r="50" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+    <row r="52" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="12" t="s">
+    <row r="55" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+    <row r="56" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+    <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+    <row r="66" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+    <row r="70" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+    <row r="71" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+    <row r="72" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="17"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="15"/>
+      <c r="B85" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7922,8 +8007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,41 +8019,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="59" t="s">
         <v>136</v>
       </c>
       <c r="C4" t="s">
@@ -7976,8 +8061,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60" t="s">
         <v>137</v>
       </c>
       <c r="C5" t="s">
@@ -7985,8 +8070,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60" t="s">
         <v>140</v>
       </c>
       <c r="C6" t="s">
@@ -7994,8 +8079,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60" t="s">
         <v>142</v>
       </c>
       <c r="C7" t="s">
@@ -8003,93 +8088,93 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C17" t="s">
@@ -8097,561 +8182,561 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="56"/>
+      <c r="B48" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="28" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="28" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="24"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Html-CSS-Javascript-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF1900-5972-4075-86D5-741E63179B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10408AAA-EE8B-4649-8C85-9BC88C1B90C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-19200" yWindow="-855" windowWidth="11070" windowHeight="15360" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -3938,21 +3938,6 @@
     <t>aplica estilo como normal - italic- oblique</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">font-weight: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>normal - bold- bolder - lighter</t>
-    </r>
-  </si>
-  <si>
     <t>aplicar valores como normal - bold - bolder - lighter</t>
   </si>
   <si>
@@ -6375,6 +6360,21 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-weight: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal - bold - bolder - lighter</t>
     </r>
   </si>
 </sst>
@@ -6614,7 +6614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6649,10 +6649,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6667,17 +6663,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6763,6 +6750,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6775,15 +6780,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7426,7 +7436,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7434,7 +7444,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7442,7 +7452,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7450,7 +7460,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7458,7 +7468,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7466,7 +7476,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7474,7 +7484,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7482,7 +7492,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7490,45 +7500,45 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="58"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="58"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="58"/>
     </row>
     <row r="15" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -7536,7 +7546,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -7544,7 +7554,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -7552,7 +7562,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -7560,31 +7570,31 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>266</v>
+      <c r="B20" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="23" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -7592,7 +7602,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7600,7 +7610,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -7632,7 +7642,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -7640,7 +7650,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -7648,7 +7658,7 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7656,7 +7666,7 @@
       </c>
     </row>
     <row r="32" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="48" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -7664,7 +7674,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -7672,7 +7682,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -7680,7 +7690,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -7688,7 +7698,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="44" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -7696,7 +7706,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7704,7 +7714,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -7768,7 +7778,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -7776,15 +7786,15 @@
       </c>
     </row>
     <row r="47" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>267</v>
+      <c r="B47" s="35" t="s">
+        <v>266</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="35" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -7792,7 +7802,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7800,7 +7810,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -7808,7 +7818,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -7816,7 +7826,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -7824,7 +7834,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -7832,7 +7842,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="35" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -7841,7 +7851,7 @@
     </row>
     <row r="55" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="33" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -7849,7 +7859,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -7857,7 +7867,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="39" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -7865,7 +7875,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -7873,7 +7883,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="40" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -7881,7 +7891,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="39" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -7889,7 +7899,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -7897,7 +7907,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="42" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -7905,7 +7915,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="42" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -7913,7 +7923,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -7921,7 +7931,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="44" t="s">
         <v>120</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -7929,7 +7939,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="43" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -7937,7 +7947,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -7945,7 +7955,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="42" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -7953,7 +7963,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -7961,7 +7971,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="40" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -7969,7 +7979,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="41" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -7977,7 +7987,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C72" s="12" t="s">
@@ -8007,8 +8017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B53" sqref="B45:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,30 +8040,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>136</v>
       </c>
       <c r="C4" t="s">
@@ -8061,8 +8071,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="51" t="s">
         <v>137</v>
       </c>
       <c r="C5" t="s">
@@ -8070,8 +8080,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C6" t="s">
@@ -8079,8 +8089,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C7" t="s">
@@ -8088,8 +8098,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -8097,8 +8107,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -8106,637 +8116,637 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="53" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="14" t="s">
+      <c r="B19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="B45" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B53" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="7"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="7"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="10"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="10"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="10"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="10"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="10"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="10"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="10"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="10"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="10"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="10"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="10"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
+      <c r="A75" s="19"/>
       <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
+      <c r="A76" s="19"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
+      <c r="A77" s="19"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="19"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
+      <c r="A100" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
